--- a/biology/Histoire de la zoologie et de la botanique/Barrie_Rickards/Barrie_Rickards.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Barrie_Rickards/Barrie_Rickards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Barrie Rickards (1938–2009) est un paléontologue britannique. Il est professeur émérite de paléontologie et de biostratigraphie au Département des sciences de la Terre de l'Université de Cambridge et membre de l'Emmanuel College. Il est surtout connu pour ses travaux sur les Graptolites. Il est également un pêcheur très connu et président de la Specialist Anglers' Alliance et de la Lure Anglers' Society.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Barrie Rickards grandit à Leeds et Goole dans le Yorkshire. Il est titulaire d'un BSc, MA, PhD, ScD et un DSc de l'Université de Hull.
 Les travaux de Barrie Rickards se concentrent sur la systématique et la biodiversité des graptolites au Paléozoïque. Cela conduit à une meilleure compréhension de leur paléobiogéographie et de leur évolution, de la manière dont ils se sont rétablis des extinctions massives et à une compréhension plus précise des taxons, des refuges et des faunes reliques de Lazarus.
